--- a/data/n2v/tables/model-1-1325-20230828-2.xlsx
+++ b/data/n2v/tables/model-1-1325-20230828-2.xlsx
@@ -460,7 +460,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -478,7 +478,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -496,7 +496,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -514,7 +514,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -532,7 +532,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -568,7 +568,7 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -586,7 +586,7 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -604,7 +604,7 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -640,7 +640,7 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -694,7 +694,7 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -712,7 +712,7 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -730,7 +730,7 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -748,7 +748,7 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -784,7 +784,7 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -838,7 +838,7 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -856,7 +856,7 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -874,7 +874,7 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -892,7 +892,7 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -928,7 +928,7 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -982,7 +982,7 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -1000,7 +1000,7 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -1018,7 +1018,7 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -1054,7 +1054,7 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -1072,7 +1072,7 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -1090,7 +1090,7 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -1108,7 +1108,7 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -1126,7 +1126,7 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -1144,7 +1144,7 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -1180,7 +1180,7 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -1216,7 +1216,7 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -1234,7 +1234,7 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -1270,7 +1270,7 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -1288,7 +1288,7 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -1342,7 +1342,7 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -1414,7 +1414,7 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -1432,7 +1432,7 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -1468,7 +1468,7 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -1522,7 +1522,7 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -1540,7 +1540,7 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -1558,7 +1558,7 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -1576,7 +1576,7 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -1594,7 +1594,7 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -1612,7 +1612,7 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -1648,7 +1648,7 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -1684,7 +1684,7 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -1702,7 +1702,7 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -1720,7 +1720,7 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -1828,7 +1828,7 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -1846,7 +1846,7 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -1954,7 +1954,7 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -1972,7 +1972,7 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -2062,7 +2062,7 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -2152,7 +2152,7 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -2404,7 +2404,7 @@
         </is>
       </c>
       <c r="C110" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -2548,7 +2548,7 @@
         </is>
       </c>
       <c r="C118" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -2638,7 +2638,7 @@
         </is>
       </c>
       <c r="C123" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -2674,7 +2674,7 @@
         </is>
       </c>
       <c r="C125" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -2710,7 +2710,7 @@
         </is>
       </c>
       <c r="C127" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -2728,7 +2728,7 @@
         </is>
       </c>
       <c r="C128" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -2818,7 +2818,7 @@
         </is>
       </c>
       <c r="C133" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -2872,7 +2872,7 @@
         </is>
       </c>
       <c r="C136" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -2980,7 +2980,7 @@
         </is>
       </c>
       <c r="C142" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -2998,7 +2998,7 @@
         </is>
       </c>
       <c r="C143" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -3016,7 +3016,7 @@
         </is>
       </c>
       <c r="C144" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -3034,7 +3034,7 @@
         </is>
       </c>
       <c r="C145" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -3124,7 +3124,7 @@
         </is>
       </c>
       <c r="C150" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -3160,7 +3160,7 @@
         </is>
       </c>
       <c r="C152" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -3232,7 +3232,7 @@
         </is>
       </c>
       <c r="C156" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -3304,7 +3304,7 @@
         </is>
       </c>
       <c r="C160" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -3376,7 +3376,7 @@
         </is>
       </c>
       <c r="C164" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -3394,7 +3394,7 @@
         </is>
       </c>
       <c r="C165" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -3538,7 +3538,7 @@
         </is>
       </c>
       <c r="C173" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -3664,7 +3664,7 @@
         </is>
       </c>
       <c r="C180" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -3682,7 +3682,7 @@
         </is>
       </c>
       <c r="C181" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -3790,7 +3790,7 @@
         </is>
       </c>
       <c r="C187" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -3970,7 +3970,7 @@
         </is>
       </c>
       <c r="C197" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -4168,7 +4168,7 @@
         </is>
       </c>
       <c r="C208" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -4186,7 +4186,7 @@
         </is>
       </c>
       <c r="C209" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -4258,7 +4258,7 @@
         </is>
       </c>
       <c r="C213" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -4294,7 +4294,7 @@
         </is>
       </c>
       <c r="C215" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -4330,7 +4330,7 @@
         </is>
       </c>
       <c r="C217" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -4438,7 +4438,7 @@
         </is>
       </c>
       <c r="C223" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -4564,7 +4564,7 @@
         </is>
       </c>
       <c r="C230" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -4636,7 +4636,7 @@
         </is>
       </c>
       <c r="C234" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -4708,7 +4708,7 @@
         </is>
       </c>
       <c r="C238" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -4852,7 +4852,7 @@
         </is>
       </c>
       <c r="C246" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -4906,7 +4906,7 @@
         </is>
       </c>
       <c r="C249" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -4942,7 +4942,7 @@
         </is>
       </c>
       <c r="C251" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -5014,7 +5014,7 @@
         </is>
       </c>
       <c r="C255" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -5086,7 +5086,7 @@
         </is>
       </c>
       <c r="C259" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -5104,7 +5104,7 @@
         </is>
       </c>
       <c r="C260" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -5122,7 +5122,7 @@
         </is>
       </c>
       <c r="C261" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -5158,7 +5158,7 @@
         </is>
       </c>
       <c r="C263" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -5176,7 +5176,7 @@
         </is>
       </c>
       <c r="C264" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -5230,7 +5230,7 @@
         </is>
       </c>
       <c r="C267" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -5248,7 +5248,7 @@
         </is>
       </c>
       <c r="C268" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -5284,7 +5284,7 @@
         </is>
       </c>
       <c r="C270" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -5302,7 +5302,7 @@
         </is>
       </c>
       <c r="C271" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -5338,7 +5338,7 @@
         </is>
       </c>
       <c r="C273" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -5392,7 +5392,7 @@
         </is>
       </c>
       <c r="C276" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -5464,7 +5464,7 @@
         </is>
       </c>
       <c r="C280" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -5518,7 +5518,7 @@
         </is>
       </c>
       <c r="C283" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -5536,7 +5536,7 @@
         </is>
       </c>
       <c r="C284" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -5554,7 +5554,7 @@
         </is>
       </c>
       <c r="C285" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -5572,7 +5572,7 @@
         </is>
       </c>
       <c r="C286" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -5590,7 +5590,7 @@
         </is>
       </c>
       <c r="C287" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -5608,7 +5608,7 @@
         </is>
       </c>
       <c r="C288" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -5626,7 +5626,7 @@
         </is>
       </c>
       <c r="C289" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -5644,7 +5644,7 @@
         </is>
       </c>
       <c r="C290" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -5698,7 +5698,7 @@
         </is>
       </c>
       <c r="C293" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -5716,7 +5716,7 @@
         </is>
       </c>
       <c r="C294" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -5734,7 +5734,7 @@
         </is>
       </c>
       <c r="C295" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -5752,7 +5752,7 @@
         </is>
       </c>
       <c r="C296" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -5788,7 +5788,7 @@
         </is>
       </c>
       <c r="C298" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -5824,7 +5824,7 @@
         </is>
       </c>
       <c r="C300" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -5842,7 +5842,7 @@
         </is>
       </c>
       <c r="C301" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -5860,7 +5860,7 @@
         </is>
       </c>
       <c r="C302" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -5878,7 +5878,7 @@
         </is>
       </c>
       <c r="C303" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -5896,7 +5896,7 @@
         </is>
       </c>
       <c r="C304" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -5914,7 +5914,7 @@
         </is>
       </c>
       <c r="C305" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -5950,7 +5950,7 @@
         </is>
       </c>
       <c r="C307" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -5968,7 +5968,7 @@
         </is>
       </c>
       <c r="C308" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -6040,7 +6040,7 @@
         </is>
       </c>
       <c r="C312" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -6076,7 +6076,7 @@
         </is>
       </c>
       <c r="C314" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -6094,7 +6094,7 @@
         </is>
       </c>
       <c r="C315" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -6148,7 +6148,7 @@
         </is>
       </c>
       <c r="C318" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -6184,7 +6184,7 @@
         </is>
       </c>
       <c r="C320" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -6220,7 +6220,7 @@
         </is>
       </c>
       <c r="C322" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -6238,7 +6238,7 @@
         </is>
       </c>
       <c r="C323" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -6292,7 +6292,7 @@
         </is>
       </c>
       <c r="C326" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -6310,7 +6310,7 @@
         </is>
       </c>
       <c r="C327" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -6382,7 +6382,7 @@
         </is>
       </c>
       <c r="C331" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -6472,7 +6472,7 @@
         </is>
       </c>
       <c r="C336" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -6508,7 +6508,7 @@
         </is>
       </c>
       <c r="C338" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -6562,7 +6562,7 @@
         </is>
       </c>
       <c r="C341" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -6598,7 +6598,7 @@
         </is>
       </c>
       <c r="C343" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -6634,7 +6634,7 @@
         </is>
       </c>
       <c r="C345" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -6724,7 +6724,7 @@
         </is>
       </c>
       <c r="C350" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -6760,7 +6760,7 @@
         </is>
       </c>
       <c r="C352" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -6778,7 +6778,7 @@
         </is>
       </c>
       <c r="C353" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -6796,7 +6796,7 @@
         </is>
       </c>
       <c r="C354" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -6850,7 +6850,7 @@
         </is>
       </c>
       <c r="C357" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -6886,7 +6886,7 @@
         </is>
       </c>
       <c r="C359" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -6904,7 +6904,7 @@
         </is>
       </c>
       <c r="C360" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -6976,7 +6976,7 @@
         </is>
       </c>
       <c r="C364" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -7012,7 +7012,7 @@
         </is>
       </c>
       <c r="C366" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -7030,7 +7030,7 @@
         </is>
       </c>
       <c r="C367" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -7048,7 +7048,7 @@
         </is>
       </c>
       <c r="C368" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -7084,7 +7084,7 @@
         </is>
       </c>
       <c r="C370" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -7102,7 +7102,7 @@
         </is>
       </c>
       <c r="C371" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -7120,7 +7120,7 @@
         </is>
       </c>
       <c r="C372" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -7156,7 +7156,7 @@
         </is>
       </c>
       <c r="C374" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -7192,7 +7192,7 @@
         </is>
       </c>
       <c r="C376" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -7210,7 +7210,7 @@
         </is>
       </c>
       <c r="C377" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -7228,7 +7228,7 @@
         </is>
       </c>
       <c r="C378" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -7264,7 +7264,7 @@
         </is>
       </c>
       <c r="C380" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -7300,7 +7300,7 @@
         </is>
       </c>
       <c r="C382" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -7318,7 +7318,7 @@
         </is>
       </c>
       <c r="C383" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -7372,7 +7372,7 @@
         </is>
       </c>
       <c r="C386" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -7390,7 +7390,7 @@
         </is>
       </c>
       <c r="C387" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -7426,7 +7426,7 @@
         </is>
       </c>
       <c r="C389" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -7498,7 +7498,7 @@
         </is>
       </c>
       <c r="C393" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -7534,7 +7534,7 @@
         </is>
       </c>
       <c r="C395" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -7552,7 +7552,7 @@
         </is>
       </c>
       <c r="C396" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -7570,7 +7570,7 @@
         </is>
       </c>
       <c r="C397" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -7588,7 +7588,7 @@
         </is>
       </c>
       <c r="C398" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -7606,7 +7606,7 @@
         </is>
       </c>
       <c r="C399" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -7624,7 +7624,7 @@
         </is>
       </c>
       <c r="C400" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -7696,7 +7696,7 @@
         </is>
       </c>
       <c r="C404" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -7768,7 +7768,7 @@
         </is>
       </c>
       <c r="C408" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -7822,7 +7822,7 @@
         </is>
       </c>
       <c r="C411" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -7840,7 +7840,7 @@
         </is>
       </c>
       <c r="C412" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -7858,7 +7858,7 @@
         </is>
       </c>
       <c r="C413" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -8002,7 +8002,7 @@
         </is>
       </c>
       <c r="C421" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -8020,7 +8020,7 @@
         </is>
       </c>
       <c r="C422" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -8038,7 +8038,7 @@
         </is>
       </c>
       <c r="C423" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -8092,7 +8092,7 @@
         </is>
       </c>
       <c r="C426" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -8110,7 +8110,7 @@
         </is>
       </c>
       <c r="C427" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -8182,7 +8182,7 @@
         </is>
       </c>
       <c r="C431" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -8254,7 +8254,7 @@
         </is>
       </c>
       <c r="C435" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -8308,7 +8308,7 @@
         </is>
       </c>
       <c r="C438" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -8326,7 +8326,7 @@
         </is>
       </c>
       <c r="C439" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -8362,7 +8362,7 @@
         </is>
       </c>
       <c r="C441" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -8416,7 +8416,7 @@
         </is>
       </c>
       <c r="C444" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -8434,7 +8434,7 @@
         </is>
       </c>
       <c r="C445" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -8470,7 +8470,7 @@
         </is>
       </c>
       <c r="C447" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -8578,7 +8578,7 @@
         </is>
       </c>
       <c r="C453" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -8632,7 +8632,7 @@
         </is>
       </c>
       <c r="C456" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -8668,7 +8668,7 @@
         </is>
       </c>
       <c r="C458" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -8704,7 +8704,7 @@
         </is>
       </c>
       <c r="C460" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -8848,7 +8848,7 @@
         </is>
       </c>
       <c r="C468" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -8902,7 +8902,7 @@
         </is>
       </c>
       <c r="C471" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -9010,7 +9010,7 @@
         </is>
       </c>
       <c r="C477" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -9100,7 +9100,7 @@
         </is>
       </c>
       <c r="C482" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -9118,7 +9118,7 @@
         </is>
       </c>
       <c r="C483" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -9136,7 +9136,7 @@
         </is>
       </c>
       <c r="C484" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -9172,7 +9172,7 @@
         </is>
       </c>
       <c r="C486" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -9190,7 +9190,7 @@
         </is>
       </c>
       <c r="C487" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -9208,7 +9208,7 @@
         </is>
       </c>
       <c r="C488" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -9226,7 +9226,7 @@
         </is>
       </c>
       <c r="C489" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -9334,7 +9334,7 @@
         </is>
       </c>
       <c r="C495" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -9388,7 +9388,7 @@
         </is>
       </c>
       <c r="C498" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
